--- a/Manual Testing/Assessments/LINKDINK TACE CASH 11.xlsx
+++ b/Manual Testing/Assessments/LINKDINK TACE CASH 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B70668-D6D1-4485-8EB7-AB865B279A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3061C4FE-5791-4A51-9776-F540FAA9F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
   <si>
     <t>TC</t>
   </si>
@@ -52,13 +52,7 @@
     <t>Actual Outcome/Result</t>
   </si>
   <si>
-    <t>Post Conditions(Pass/Fail)</t>
-  </si>
-  <si>
     <t>TC1</t>
-  </si>
-  <si>
-    <t>LINKDINK PROFILE</t>
   </si>
   <si>
     <t xml:space="preserve">Network should be working fine
@@ -263,9 +257,6 @@
 5.Public</t>
   </si>
   <si>
-    <t>User can able to edit ,add photo , photo frames ,delete and public</t>
-  </si>
-  <si>
     <t>Check the all the functionality profile piture</t>
   </si>
   <si>
@@ -284,16 +275,7 @@
     <t xml:space="preserve">Check the open to </t>
   </si>
   <si>
-    <t>1. Hiring
-2. Providing services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check the add to profile </t>
-  </si>
-  <si>
-    <t>1.Core
-2. Recommended
-3. Additional</t>
   </si>
   <si>
     <t>Check the all  the profile details</t>
@@ -343,6 +325,116 @@
   </si>
   <si>
     <t>Does the analytics provied options to the user like profile views , post inpressions and followers</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>LINKEDIN PROFILE</t>
+  </si>
+  <si>
+    <t>check the add profile picture</t>
+  </si>
+  <si>
+    <t>Network should be working fine
+Search option should work</t>
+  </si>
+  <si>
+    <t>add photo</t>
+  </si>
+  <si>
+    <t>User can able to add profile picture</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>User can able to edit, photo frames ,delete and public</t>
+  </si>
+  <si>
+    <t>check the Frames picture</t>
+  </si>
+  <si>
+    <t>changing Frames</t>
+  </si>
+  <si>
+    <t>User should be able to switch from one frame to another frame.</t>
+  </si>
+  <si>
+    <t>user is able to switch different Frames</t>
+  </si>
+  <si>
+    <t>delet profile</t>
+  </si>
+  <si>
+    <t>Check the delete profile</t>
+  </si>
+  <si>
+    <t>Clicking on Delete in Jyare Edit Profile should delete the profile</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the public profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">public profile </t>
+  </si>
+  <si>
+    <t>When we want to keep the profile public or your LinkedIn member can be kept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Edit photo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiring
+</t>
+  </si>
+  <si>
+    <t>1. Providing services</t>
+  </si>
+  <si>
+    <t>When we use it for providing services for work at home</t>
+  </si>
+  <si>
+    <t>Check the recommended</t>
+  </si>
+  <si>
+    <t>1. recommended</t>
+  </si>
+  <si>
+    <t>When clicking on the recommended ad project, ad cursing is done and so on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the additional </t>
+  </si>
+  <si>
+    <t>1.Additional</t>
+  </si>
+  <si>
+    <t>when clicking on the additional add patents, add languages,add organizations ect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Core
+</t>
+  </si>
+  <si>
+    <t>Post Conditions
+(Pass/Fail)</t>
   </si>
 </sst>
 </file>
@@ -376,7 +468,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -384,11 +475,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -429,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -530,131 +622,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,64 +671,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,10 +713,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,466 +990,661 @@
     <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="8" width="85.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" customWidth="1"/>
+    <col min="8" max="8" width="42.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="E2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="I3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="D4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="G5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="B6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="I7" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="B8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="D19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="I19" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="E20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="G29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1545,99 +1675,99 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="13">
         <v>45402</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="M2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="O2" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P2" s="12"/>
     </row>
